--- a/Running projects/Ahmed Villa/096- Invoice for repairing of leaking plumbing lines (Rec on dated 27 Dec 23).xlsx
+++ b/Running projects/Ahmed Villa/096- Invoice for repairing of leaking plumbing lines (Rec on dated 27 Dec 23).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9210ECE-5373-4004-9D77-DF8D1A73E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3ED941-B21F-411C-868C-01956041EE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,7 +793,7 @@
   <dimension ref="A13:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
